--- a/Application/RequestsLorenz.xlsx
+++ b/Application/RequestsLorenz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leddig\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C906F05-F2E4-452F-9C76-56789C2667C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9588B627-702B-4F63-B956-B971954501E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5672F3A5-9886-4B8E-B601-D0CDD30B1015}"/>
+    <workbookView xWindow="4470" yWindow="0" windowWidth="12780" windowHeight="10920" xr2:uid="{5672F3A5-9886-4B8E-B601-D0CDD30B1015}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Request ID</t>
-  </si>
-  <si>
-    <t>Revenue</t>
   </si>
   <si>
     <t>Request 1</t>
@@ -434,14 +431,14 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3">
         <v>16.25</v>
@@ -455,24 +452,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>20.43</v>
@@ -486,13 +481,11 @@
       <c r="E3" s="3">
         <v>58.8</v>
       </c>
-      <c r="F3" s="4">
-        <v>97.27</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>-23.97</v>
@@ -506,13 +499,11 @@
       <c r="E4" s="3">
         <v>54.32</v>
       </c>
-      <c r="F4" s="4">
-        <v>77.430000000000007</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>-58.64</v>
@@ -526,13 +517,11 @@
       <c r="E5" s="3">
         <v>-85.95</v>
       </c>
-      <c r="F5" s="4">
-        <v>77.81</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>-96.72</v>
@@ -546,9 +535,7 @@
       <c r="E6" s="3">
         <v>68.78</v>
       </c>
-      <c r="F6" s="4">
-        <v>62.17</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
